--- a/jsonToExcel/JM/JM-1-output.xlsx
+++ b/jsonToExcel/JM/JM-1-output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mihu/vscode/temu-tiaoma/jsonToExcel/JM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0801CF1-543F-8B41-BD4E-C475EA749210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C018224-F9FE-654C-981C-4F23D4B06B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15440" yWindow="2320" windowWidth="31300" windowHeight="24320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2942,12 +2942,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB63AF7F-57D8-594F-ACDB-F1D671EBF843}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F474" sqref="F474"/>
+      <pane ySplit="1" topLeftCell="A444" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I465" sqref="A1:I465"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2990,7 +2989,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" hidden="1">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>843</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9" hidden="1">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>843</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>843</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9" hidden="1">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>843</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>843</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>843</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>843</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>843</v>
       </c>
@@ -3222,7 +3221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>843</v>
       </c>
@@ -3251,7 +3250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>843</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>843</v>
       </c>
@@ -3309,7 +3308,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>843</v>
       </c>
@@ -3338,7 +3337,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>843</v>
       </c>
@@ -3367,7 +3366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>843</v>
       </c>
@@ -3396,7 +3395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>843</v>
       </c>
@@ -3425,7 +3424,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>843</v>
       </c>
@@ -3454,7 +3453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>843</v>
       </c>
@@ -3483,7 +3482,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>843</v>
       </c>
@@ -3512,7 +3511,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1">
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>843</v>
       </c>
@@ -3541,7 +3540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>843</v>
       </c>
@@ -3570,7 +3569,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1">
+    <row r="22" spans="1:9">
       <c r="A22" t="s">
         <v>843</v>
       </c>
@@ -3599,7 +3598,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1">
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
         <v>843</v>
       </c>
@@ -3628,7 +3627,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1">
+    <row r="24" spans="1:9">
       <c r="A24" t="s">
         <v>843</v>
       </c>
@@ -3657,7 +3656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1">
+    <row r="25" spans="1:9">
       <c r="A25" t="s">
         <v>843</v>
       </c>
@@ -3686,7 +3685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1">
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
         <v>843</v>
       </c>
@@ -3715,7 +3714,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1">
+    <row r="27" spans="1:9">
       <c r="A27" t="s">
         <v>843</v>
       </c>
@@ -3744,7 +3743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1">
+    <row r="28" spans="1:9">
       <c r="A28" t="s">
         <v>843</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>843</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>843</v>
       </c>
@@ -3831,7 +3830,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>843</v>
       </c>
@@ -3860,7 +3859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>843</v>
       </c>
@@ -3889,7 +3888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>843</v>
       </c>
@@ -3918,7 +3917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>843</v>
       </c>
@@ -3947,7 +3946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>843</v>
       </c>
@@ -3976,7 +3975,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>843</v>
       </c>
@@ -4005,7 +4004,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>843</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>843</v>
       </c>
@@ -4063,7 +4062,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>843</v>
       </c>
@@ -4092,7 +4091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>843</v>
       </c>
@@ -4121,7 +4120,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>843</v>
       </c>
@@ -4150,7 +4149,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>843</v>
       </c>
@@ -4179,7 +4178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>843</v>
       </c>
@@ -4208,7 +4207,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>843</v>
       </c>
@@ -4237,7 +4236,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>843</v>
       </c>
@@ -4266,7 +4265,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>843</v>
       </c>
@@ -4295,7 +4294,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>843</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>843</v>
       </c>
@@ -4353,7 +4352,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>843</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>843</v>
       </c>
@@ -4411,7 +4410,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>843</v>
       </c>
@@ -4440,7 +4439,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>843</v>
       </c>
@@ -4469,7 +4468,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>843</v>
       </c>
@@ -4498,7 +4497,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>843</v>
       </c>
@@ -4527,7 +4526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>843</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>843</v>
       </c>
@@ -4585,7 +4584,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>843</v>
       </c>
@@ -4614,7 +4613,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>843</v>
       </c>
@@ -4643,7 +4642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>843</v>
       </c>
@@ -4672,7 +4671,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>843</v>
       </c>
@@ -4701,7 +4700,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>843</v>
       </c>
@@ -4730,7 +4729,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>843</v>
       </c>
@@ -4759,7 +4758,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>843</v>
       </c>
@@ -4788,7 +4787,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>843</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>843</v>
       </c>
@@ -4846,7 +4845,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>843</v>
       </c>
@@ -4875,7 +4874,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>843</v>
       </c>
@@ -4904,7 +4903,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>843</v>
       </c>
@@ -4933,7 +4932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>843</v>
       </c>
@@ -4962,7 +4961,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>843</v>
       </c>
@@ -4991,7 +4990,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>843</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>843</v>
       </c>
@@ -5049,7 +5048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>843</v>
       </c>
@@ -5078,7 +5077,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>843</v>
       </c>
@@ -5107,7 +5106,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>843</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>843</v>
       </c>
@@ -5165,7 +5164,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>843</v>
       </c>
@@ -5194,7 +5193,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>843</v>
       </c>
@@ -5223,7 +5222,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>843</v>
       </c>
@@ -5252,7 +5251,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>843</v>
       </c>
@@ -5281,7 +5280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>843</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>843</v>
       </c>
@@ -5339,7 +5338,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>843</v>
       </c>
@@ -5368,7 +5367,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>843</v>
       </c>
@@ -5397,7 +5396,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>843</v>
       </c>
@@ -5426,7 +5425,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>843</v>
       </c>
@@ -5455,7 +5454,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>843</v>
       </c>
@@ -5484,7 +5483,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>843</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>843</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>843</v>
       </c>
@@ -5571,7 +5570,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>843</v>
       </c>
@@ -5600,7 +5599,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>843</v>
       </c>
@@ -5629,7 +5628,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>843</v>
       </c>
@@ -5658,7 +5657,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>843</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>843</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>843</v>
       </c>
@@ -5745,7 +5744,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>843</v>
       </c>
@@ -5774,7 +5773,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>843</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>843</v>
       </c>
@@ -5832,7 +5831,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>843</v>
       </c>
@@ -5861,7 +5860,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>843</v>
       </c>
@@ -5890,7 +5889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>843</v>
       </c>
@@ -5919,7 +5918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>843</v>
       </c>
@@ -5948,7 +5947,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>843</v>
       </c>
@@ -5977,7 +5976,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>843</v>
       </c>
@@ -6006,7 +6005,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>843</v>
       </c>
@@ -6035,7 +6034,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>843</v>
       </c>
@@ -6064,7 +6063,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>843</v>
       </c>
@@ -6093,7 +6092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>843</v>
       </c>
@@ -6122,7 +6121,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>843</v>
       </c>
@@ -6151,7 +6150,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>843</v>
       </c>
@@ -6180,7 +6179,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>843</v>
       </c>
@@ -6209,7 +6208,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>843</v>
       </c>
@@ -6238,7 +6237,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>843</v>
       </c>
@@ -6267,7 +6266,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>843</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>843</v>
       </c>
@@ -6325,7 +6324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>843</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>843</v>
       </c>
@@ -6383,7 +6382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>843</v>
       </c>
@@ -6412,7 +6411,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>843</v>
       </c>
@@ -6441,7 +6440,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>843</v>
       </c>
@@ -6470,7 +6469,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>843</v>
       </c>
@@ -6499,7 +6498,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>843</v>
       </c>
@@ -6528,7 +6527,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>843</v>
       </c>
@@ -6557,7 +6556,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>843</v>
       </c>
@@ -6586,7 +6585,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>843</v>
       </c>
@@ -6615,7 +6614,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>843</v>
       </c>
@@ -6644,7 +6643,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>843</v>
       </c>
@@ -6673,7 +6672,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>843</v>
       </c>
@@ -6702,7 +6701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>843</v>
       </c>
@@ -6731,7 +6730,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>843</v>
       </c>
@@ -6760,7 +6759,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>843</v>
       </c>
@@ -6789,7 +6788,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>843</v>
       </c>
@@ -6818,7 +6817,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>843</v>
       </c>
@@ -6847,7 +6846,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>843</v>
       </c>
@@ -6876,7 +6875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>843</v>
       </c>
@@ -6905,7 +6904,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>843</v>
       </c>
@@ -6934,7 +6933,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>843</v>
       </c>
@@ -6963,7 +6962,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>843</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>843</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>843</v>
       </c>
@@ -7050,7 +7049,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>843</v>
       </c>
@@ -7079,7 +7078,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>843</v>
       </c>
@@ -7108,7 +7107,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>843</v>
       </c>
@@ -7137,7 +7136,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>843</v>
       </c>
@@ -7166,7 +7165,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>843</v>
       </c>
@@ -7195,7 +7194,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>843</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>843</v>
       </c>
@@ -7253,7 +7252,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>843</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>843</v>
       </c>
@@ -7311,7 +7310,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>843</v>
       </c>
@@ -7340,7 +7339,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>843</v>
       </c>
@@ -7369,7 +7368,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>843</v>
       </c>
@@ -7398,7 +7397,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>843</v>
       </c>
@@ -7427,7 +7426,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>843</v>
       </c>
@@ -7456,7 +7455,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>843</v>
       </c>
@@ -7485,7 +7484,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>843</v>
       </c>
@@ -7514,7 +7513,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>843</v>
       </c>
@@ -7543,7 +7542,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>843</v>
       </c>
@@ -7572,7 +7571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>843</v>
       </c>
@@ -7601,7 +7600,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>843</v>
       </c>
@@ -7630,7 +7629,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>843</v>
       </c>
@@ -7659,7 +7658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>843</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>843</v>
       </c>
@@ -7717,7 +7716,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>843</v>
       </c>
@@ -7746,7 +7745,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>843</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>843</v>
       </c>
@@ -8239,7 +8238,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>843</v>
       </c>
@@ -8297,7 +8296,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1">
+    <row r="185" spans="1:9">
       <c r="A185" t="s">
         <v>843</v>
       </c>
@@ -8326,7 +8325,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>843</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1">
+    <row r="187" spans="1:9">
       <c r="A187" t="s">
         <v>843</v>
       </c>
@@ -8384,7 +8383,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>843</v>
       </c>
@@ -8413,7 +8412,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>843</v>
       </c>
@@ -8442,7 +8441,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>843</v>
       </c>
@@ -8471,7 +8470,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>843</v>
       </c>
@@ -8500,7 +8499,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>843</v>
       </c>
@@ -8529,7 +8528,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>843</v>
       </c>
@@ -8558,7 +8557,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>843</v>
       </c>
@@ -8587,7 +8586,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>843</v>
       </c>
@@ -8616,7 +8615,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>843</v>
       </c>
@@ -8645,7 +8644,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>843</v>
       </c>
@@ -8674,7 +8673,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>843</v>
       </c>
@@ -8703,7 +8702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>843</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>843</v>
       </c>
@@ -8761,7 +8760,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>843</v>
       </c>
@@ -8790,7 +8789,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>843</v>
       </c>
@@ -8819,7 +8818,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>843</v>
       </c>
@@ -8848,7 +8847,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>843</v>
       </c>
@@ -8877,7 +8876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>843</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>843</v>
       </c>
@@ -8935,7 +8934,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>843</v>
       </c>
@@ -8964,7 +8963,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>843</v>
       </c>
@@ -8993,7 +8992,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>843</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>843</v>
       </c>
@@ -9051,7 +9050,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>843</v>
       </c>
@@ -9080,7 +9079,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>843</v>
       </c>
@@ -9109,7 +9108,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>843</v>
       </c>
@@ -9138,7 +9137,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>843</v>
       </c>
@@ -9167,7 +9166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>843</v>
       </c>
@@ -9196,7 +9195,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>843</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>843</v>
       </c>
@@ -9660,7 +9659,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>843</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>843</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>843</v>
       </c>
@@ -9747,7 +9746,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>843</v>
       </c>
@@ -9776,7 +9775,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>843</v>
       </c>
@@ -9805,7 +9804,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>843</v>
       </c>
@@ -9834,7 +9833,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>843</v>
       </c>
@@ -9863,7 +9862,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>843</v>
       </c>
@@ -9892,7 +9891,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>843</v>
       </c>
@@ -9921,7 +9920,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>843</v>
       </c>
@@ -9950,7 +9949,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>843</v>
       </c>
@@ -9979,7 +9978,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>843</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>843</v>
       </c>
@@ -10037,7 +10036,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>843</v>
       </c>
@@ -10066,7 +10065,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>843</v>
       </c>
@@ -10095,7 +10094,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>843</v>
       </c>
@@ -10124,7 +10123,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>843</v>
       </c>
@@ -10153,7 +10152,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>843</v>
       </c>
@@ -10182,7 +10181,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>843</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1">
+    <row r="251" spans="1:9">
       <c r="A251" t="s">
         <v>843</v>
       </c>
@@ -10240,7 +10239,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1">
+    <row r="252" spans="1:9">
       <c r="A252" t="s">
         <v>843</v>
       </c>
@@ -10269,7 +10268,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1">
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
         <v>843</v>
       </c>
@@ -10298,7 +10297,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1">
+    <row r="254" spans="1:9">
       <c r="A254" t="s">
         <v>843</v>
       </c>
@@ -10327,7 +10326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1">
+    <row r="255" spans="1:9">
       <c r="A255" t="s">
         <v>843</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1">
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
         <v>843</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1">
+    <row r="257" spans="1:9">
       <c r="A257" t="s">
         <v>843</v>
       </c>
@@ -10414,7 +10413,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1">
+    <row r="258" spans="1:9">
       <c r="A258" t="s">
         <v>843</v>
       </c>
@@ -10443,7 +10442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1">
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
         <v>843</v>
       </c>
@@ -10472,7 +10471,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1">
+    <row r="260" spans="1:9">
       <c r="A260" t="s">
         <v>843</v>
       </c>
@@ -10501,7 +10500,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1">
+    <row r="261" spans="1:9">
       <c r="A261" t="s">
         <v>843</v>
       </c>
@@ -10530,7 +10529,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1">
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
         <v>843</v>
       </c>
@@ -10559,7 +10558,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1">
+    <row r="263" spans="1:9">
       <c r="A263" t="s">
         <v>843</v>
       </c>
@@ -10588,7 +10587,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1">
+    <row r="264" spans="1:9">
       <c r="A264" t="s">
         <v>843</v>
       </c>
@@ -11777,7 +11776,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1">
+    <row r="305" spans="1:9">
       <c r="A305" t="s">
         <v>843</v>
       </c>
@@ -11806,7 +11805,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1">
+    <row r="306" spans="1:9">
       <c r="A306" t="s">
         <v>843</v>
       </c>
@@ -11835,7 +11834,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1">
+    <row r="307" spans="1:9">
       <c r="A307" t="s">
         <v>843</v>
       </c>
@@ -11864,7 +11863,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1">
+    <row r="308" spans="1:9">
       <c r="A308" t="s">
         <v>843</v>
       </c>
@@ -11893,7 +11892,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1">
+    <row r="309" spans="1:9">
       <c r="A309" t="s">
         <v>843</v>
       </c>
@@ -11922,7 +11921,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1">
+    <row r="310" spans="1:9">
       <c r="A310" t="s">
         <v>843</v>
       </c>
@@ -11951,7 +11950,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1">
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
         <v>843</v>
       </c>
@@ -11980,7 +11979,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1">
+    <row r="312" spans="1:9">
       <c r="A312" t="s">
         <v>843</v>
       </c>
@@ -12009,7 +12008,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1">
+    <row r="313" spans="1:9">
       <c r="A313" t="s">
         <v>843</v>
       </c>
@@ -12038,7 +12037,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1">
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
         <v>843</v>
       </c>
@@ -12067,7 +12066,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1">
+    <row r="315" spans="1:9">
       <c r="A315" t="s">
         <v>843</v>
       </c>
@@ -12096,7 +12095,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1">
+    <row r="316" spans="1:9">
       <c r="A316" t="s">
         <v>843</v>
       </c>
@@ -12125,7 +12124,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1">
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
         <v>843</v>
       </c>
@@ -12154,7 +12153,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1">
+    <row r="318" spans="1:9">
       <c r="A318" t="s">
         <v>843</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1">
+    <row r="319" spans="1:9">
       <c r="A319" t="s">
         <v>843</v>
       </c>
@@ -12212,7 +12211,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1">
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
         <v>843</v>
       </c>
@@ -12241,7 +12240,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1">
+    <row r="321" spans="1:9">
       <c r="A321" t="s">
         <v>843</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1">
+    <row r="322" spans="1:9">
       <c r="A322" t="s">
         <v>843</v>
       </c>
@@ -12299,7 +12298,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1">
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
         <v>843</v>
       </c>
@@ -12328,7 +12327,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1">
+    <row r="324" spans="1:9">
       <c r="A324" t="s">
         <v>843</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1">
+    <row r="325" spans="1:9">
       <c r="A325" t="s">
         <v>843</v>
       </c>
@@ -12386,7 +12385,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1">
+    <row r="326" spans="1:9">
       <c r="A326" t="s">
         <v>843</v>
       </c>
@@ -12415,7 +12414,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1">
+    <row r="327" spans="1:9">
       <c r="A327" t="s">
         <v>843</v>
       </c>
@@ -12444,7 +12443,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1">
+    <row r="328" spans="1:9">
       <c r="A328" t="s">
         <v>843</v>
       </c>
@@ -12473,7 +12472,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1">
+    <row r="329" spans="1:9">
       <c r="A329" t="s">
         <v>843</v>
       </c>
@@ -12502,7 +12501,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1">
+    <row r="330" spans="1:9">
       <c r="A330" t="s">
         <v>843</v>
       </c>
@@ -12531,7 +12530,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1">
+    <row r="331" spans="1:9">
       <c r="A331" t="s">
         <v>843</v>
       </c>
@@ -12560,7 +12559,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1">
+    <row r="332" spans="1:9">
       <c r="A332" t="s">
         <v>843</v>
       </c>
@@ -12589,7 +12588,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1">
+    <row r="333" spans="1:9">
       <c r="A333" t="s">
         <v>843</v>
       </c>
@@ -12618,7 +12617,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1">
+    <row r="334" spans="1:9">
       <c r="A334" t="s">
         <v>843</v>
       </c>
@@ -12647,7 +12646,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1">
+    <row r="335" spans="1:9">
       <c r="A335" t="s">
         <v>843</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1">
+    <row r="336" spans="1:9">
       <c r="A336" t="s">
         <v>843</v>
       </c>
@@ -12705,7 +12704,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1">
+    <row r="337" spans="1:9">
       <c r="A337" t="s">
         <v>843</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1">
+    <row r="338" spans="1:9">
       <c r="A338" t="s">
         <v>843</v>
       </c>
@@ -12763,7 +12762,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1">
+    <row r="339" spans="1:9">
       <c r="A339" t="s">
         <v>843</v>
       </c>
@@ -12792,7 +12791,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1">
+    <row r="340" spans="1:9">
       <c r="A340" t="s">
         <v>843</v>
       </c>
@@ -12821,7 +12820,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1">
+    <row r="341" spans="1:9">
       <c r="A341" t="s">
         <v>843</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1">
+    <row r="342" spans="1:9">
       <c r="A342" t="s">
         <v>843</v>
       </c>
@@ -12879,7 +12878,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1">
+    <row r="343" spans="1:9">
       <c r="A343" t="s">
         <v>843</v>
       </c>
@@ -12908,7 +12907,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1">
+    <row r="344" spans="1:9">
       <c r="A344" t="s">
         <v>843</v>
       </c>
@@ -12937,7 +12936,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1">
+    <row r="345" spans="1:9">
       <c r="A345" t="s">
         <v>843</v>
       </c>
@@ -12966,7 +12965,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1">
+    <row r="346" spans="1:9">
       <c r="A346" t="s">
         <v>843</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1">
+    <row r="347" spans="1:9">
       <c r="A347" t="s">
         <v>843</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1">
+    <row r="348" spans="1:9">
       <c r="A348" t="s">
         <v>843</v>
       </c>
@@ -13053,7 +13052,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1">
+    <row r="349" spans="1:9">
       <c r="A349" t="s">
         <v>843</v>
       </c>
@@ -13082,7 +13081,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1">
+    <row r="350" spans="1:9">
       <c r="A350" t="s">
         <v>843</v>
       </c>
@@ -13111,7 +13110,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1">
+    <row r="351" spans="1:9">
       <c r="A351" t="s">
         <v>843</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1">
+    <row r="352" spans="1:9">
       <c r="A352" t="s">
         <v>843</v>
       </c>
@@ -13169,7 +13168,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1">
+    <row r="353" spans="1:9">
       <c r="A353" t="s">
         <v>843</v>
       </c>
@@ -13198,7 +13197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1">
+    <row r="354" spans="1:9">
       <c r="A354" t="s">
         <v>843</v>
       </c>
@@ -13227,7 +13226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1">
+    <row r="355" spans="1:9">
       <c r="A355" t="s">
         <v>843</v>
       </c>
@@ -13256,7 +13255,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1">
+    <row r="356" spans="1:9">
       <c r="A356" t="s">
         <v>843</v>
       </c>
@@ -13285,7 +13284,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1">
+    <row r="357" spans="1:9">
       <c r="A357" t="s">
         <v>843</v>
       </c>
@@ -13314,7 +13313,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1">
+    <row r="358" spans="1:9">
       <c r="A358" t="s">
         <v>843</v>
       </c>
@@ -13343,7 +13342,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1">
+    <row r="359" spans="1:9">
       <c r="A359" t="s">
         <v>843</v>
       </c>
@@ -13372,7 +13371,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1">
+    <row r="360" spans="1:9">
       <c r="A360" t="s">
         <v>843</v>
       </c>
@@ -13401,7 +13400,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1">
+    <row r="361" spans="1:9">
       <c r="A361" t="s">
         <v>843</v>
       </c>
@@ -13430,7 +13429,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1">
+    <row r="362" spans="1:9">
       <c r="A362" t="s">
         <v>843</v>
       </c>
@@ -13459,7 +13458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1">
+    <row r="363" spans="1:9">
       <c r="A363" t="s">
         <v>843</v>
       </c>
@@ -13488,7 +13487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1">
+    <row r="364" spans="1:9">
       <c r="A364" t="s">
         <v>843</v>
       </c>
@@ -13517,7 +13516,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1">
+    <row r="365" spans="1:9">
       <c r="A365" t="s">
         <v>843</v>
       </c>
@@ -13546,7 +13545,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1">
+    <row r="366" spans="1:9">
       <c r="A366" t="s">
         <v>843</v>
       </c>
@@ -13575,7 +13574,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1">
+    <row r="367" spans="1:9">
       <c r="A367" t="s">
         <v>843</v>
       </c>
@@ -13604,7 +13603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1">
+    <row r="368" spans="1:9">
       <c r="A368" t="s">
         <v>843</v>
       </c>
@@ -13633,7 +13632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1">
+    <row r="369" spans="1:9">
       <c r="A369" t="s">
         <v>843</v>
       </c>
@@ -13662,7 +13661,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1">
+    <row r="370" spans="1:9">
       <c r="A370" t="s">
         <v>843</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1">
+    <row r="371" spans="1:9">
       <c r="A371" t="s">
         <v>843</v>
       </c>
@@ -13720,7 +13719,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1">
+    <row r="372" spans="1:9">
       <c r="A372" t="s">
         <v>843</v>
       </c>
@@ -13749,7 +13748,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1">
+    <row r="373" spans="1:9">
       <c r="A373" t="s">
         <v>843</v>
       </c>
@@ -13778,7 +13777,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1">
+    <row r="374" spans="1:9">
       <c r="A374" t="s">
         <v>843</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1">
+    <row r="375" spans="1:9">
       <c r="A375" t="s">
         <v>843</v>
       </c>
@@ -13836,7 +13835,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1">
+    <row r="376" spans="1:9">
       <c r="A376" t="s">
         <v>843</v>
       </c>
@@ -13865,7 +13864,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1">
+    <row r="377" spans="1:9">
       <c r="A377" t="s">
         <v>843</v>
       </c>
@@ -13894,7 +13893,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1">
+    <row r="378" spans="1:9">
       <c r="A378" t="s">
         <v>843</v>
       </c>
@@ -13923,7 +13922,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1">
+    <row r="379" spans="1:9">
       <c r="A379" t="s">
         <v>843</v>
       </c>
@@ -13952,7 +13951,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1">
+    <row r="380" spans="1:9">
       <c r="A380" t="s">
         <v>843</v>
       </c>
@@ -13981,7 +13980,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1">
+    <row r="381" spans="1:9">
       <c r="A381" t="s">
         <v>843</v>
       </c>
@@ -14010,7 +14009,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1">
+    <row r="382" spans="1:9">
       <c r="A382" t="s">
         <v>843</v>
       </c>
@@ -14039,7 +14038,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1">
+    <row r="383" spans="1:9">
       <c r="A383" t="s">
         <v>843</v>
       </c>
@@ -14068,7 +14067,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1">
+    <row r="384" spans="1:9">
       <c r="A384" t="s">
         <v>843</v>
       </c>
@@ -14097,7 +14096,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1">
+    <row r="385" spans="1:9">
       <c r="A385" t="s">
         <v>843</v>
       </c>
@@ -14126,7 +14125,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1">
+    <row r="386" spans="1:9">
       <c r="A386" t="s">
         <v>843</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1">
+    <row r="387" spans="1:9">
       <c r="A387" t="s">
         <v>843</v>
       </c>
@@ -14184,7 +14183,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1">
+    <row r="388" spans="1:9">
       <c r="A388" t="s">
         <v>843</v>
       </c>
@@ -14213,7 +14212,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1">
+    <row r="389" spans="1:9">
       <c r="A389" t="s">
         <v>843</v>
       </c>
@@ -14242,7 +14241,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1">
+    <row r="390" spans="1:9">
       <c r="A390" t="s">
         <v>843</v>
       </c>
@@ -14271,7 +14270,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1">
+    <row r="391" spans="1:9">
       <c r="A391" t="s">
         <v>843</v>
       </c>
@@ -14300,7 +14299,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1">
+    <row r="392" spans="1:9">
       <c r="A392" t="s">
         <v>843</v>
       </c>
@@ -14329,7 +14328,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1">
+    <row r="393" spans="1:9">
       <c r="A393" t="s">
         <v>843</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1">
+    <row r="394" spans="1:9">
       <c r="A394" t="s">
         <v>843</v>
       </c>
@@ -14387,7 +14386,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1">
+    <row r="395" spans="1:9">
       <c r="A395" t="s">
         <v>843</v>
       </c>
@@ -14416,7 +14415,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1">
+    <row r="396" spans="1:9">
       <c r="A396" t="s">
         <v>843</v>
       </c>
@@ -14445,7 +14444,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1">
+    <row r="397" spans="1:9">
       <c r="A397" t="s">
         <v>843</v>
       </c>
@@ -14474,7 +14473,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1">
+    <row r="398" spans="1:9">
       <c r="A398" t="s">
         <v>843</v>
       </c>
@@ -14503,7 +14502,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1">
+    <row r="399" spans="1:9">
       <c r="A399" t="s">
         <v>843</v>
       </c>
@@ -14532,7 +14531,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1">
+    <row r="400" spans="1:9">
       <c r="A400" t="s">
         <v>843</v>
       </c>
@@ -14561,7 +14560,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1">
+    <row r="401" spans="1:9">
       <c r="A401" t="s">
         <v>843</v>
       </c>
@@ -14590,7 +14589,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1">
+    <row r="402" spans="1:9">
       <c r="A402" t="s">
         <v>843</v>
       </c>
@@ -14619,7 +14618,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1">
+    <row r="403" spans="1:9">
       <c r="A403" t="s">
         <v>843</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1">
+    <row r="404" spans="1:9">
       <c r="A404" t="s">
         <v>843</v>
       </c>
@@ -14677,7 +14676,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1">
+    <row r="405" spans="1:9">
       <c r="A405" t="s">
         <v>843</v>
       </c>
@@ -14706,7 +14705,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1">
+    <row r="406" spans="1:9">
       <c r="A406" t="s">
         <v>843</v>
       </c>
@@ -14735,7 +14734,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1">
+    <row r="407" spans="1:9">
       <c r="A407" t="s">
         <v>843</v>
       </c>
@@ -14764,7 +14763,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1">
+    <row r="408" spans="1:9">
       <c r="A408" t="s">
         <v>843</v>
       </c>
@@ -14793,7 +14792,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1">
+    <row r="409" spans="1:9">
       <c r="A409" t="s">
         <v>843</v>
       </c>
@@ -14822,7 +14821,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1">
+    <row r="410" spans="1:9">
       <c r="A410" t="s">
         <v>843</v>
       </c>
@@ -14851,7 +14850,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1">
+    <row r="411" spans="1:9">
       <c r="A411" t="s">
         <v>843</v>
       </c>
@@ -14880,7 +14879,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1">
+    <row r="412" spans="1:9">
       <c r="A412" t="s">
         <v>843</v>
       </c>
@@ -14909,7 +14908,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1">
+    <row r="413" spans="1:9">
       <c r="A413" t="s">
         <v>843</v>
       </c>
@@ -14938,7 +14937,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1">
+    <row r="414" spans="1:9">
       <c r="A414" t="s">
         <v>843</v>
       </c>
@@ -14967,7 +14966,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1">
+    <row r="415" spans="1:9">
       <c r="A415" t="s">
         <v>843</v>
       </c>
@@ -14996,7 +14995,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1">
+    <row r="416" spans="1:9">
       <c r="A416" t="s">
         <v>843</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1">
+    <row r="417" spans="1:9">
       <c r="A417" t="s">
         <v>843</v>
       </c>
@@ -15054,7 +15053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1">
+    <row r="418" spans="1:9">
       <c r="A418" t="s">
         <v>843</v>
       </c>
@@ -15083,7 +15082,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1">
+    <row r="419" spans="1:9">
       <c r="A419" t="s">
         <v>843</v>
       </c>
@@ -15112,7 +15111,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1">
+    <row r="420" spans="1:9">
       <c r="A420" t="s">
         <v>843</v>
       </c>
@@ -15141,7 +15140,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1">
+    <row r="421" spans="1:9">
       <c r="A421" t="s">
         <v>843</v>
       </c>
@@ -15170,7 +15169,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1">
+    <row r="422" spans="1:9">
       <c r="A422" t="s">
         <v>843</v>
       </c>
@@ -15199,7 +15198,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1">
+    <row r="423" spans="1:9">
       <c r="A423" t="s">
         <v>843</v>
       </c>
@@ -15228,7 +15227,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1">
+    <row r="424" spans="1:9">
       <c r="A424" t="s">
         <v>843</v>
       </c>
@@ -15257,7 +15256,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1">
+    <row r="425" spans="1:9">
       <c r="A425" t="s">
         <v>843</v>
       </c>
@@ -15286,7 +15285,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1">
+    <row r="426" spans="1:9">
       <c r="A426" t="s">
         <v>843</v>
       </c>
@@ -15315,7 +15314,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1">
+    <row r="427" spans="1:9">
       <c r="A427" t="s">
         <v>843</v>
       </c>
@@ -15344,7 +15343,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1">
+    <row r="428" spans="1:9">
       <c r="A428" t="s">
         <v>843</v>
       </c>
@@ -15373,7 +15372,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1">
+    <row r="429" spans="1:9">
       <c r="A429" t="s">
         <v>843</v>
       </c>
@@ -15402,7 +15401,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1">
+    <row r="430" spans="1:9">
       <c r="A430" t="s">
         <v>843</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1">
+    <row r="431" spans="1:9">
       <c r="A431" t="s">
         <v>843</v>
       </c>
@@ -15460,7 +15459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1">
+    <row r="432" spans="1:9">
       <c r="A432" t="s">
         <v>843</v>
       </c>
@@ -15489,7 +15488,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1">
+    <row r="433" spans="1:9">
       <c r="A433" t="s">
         <v>843</v>
       </c>
@@ -15518,7 +15517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1">
+    <row r="434" spans="1:9">
       <c r="A434" t="s">
         <v>843</v>
       </c>
@@ -15547,7 +15546,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1">
+    <row r="435" spans="1:9">
       <c r="A435" t="s">
         <v>843</v>
       </c>
@@ -15576,7 +15575,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1">
+    <row r="436" spans="1:9">
       <c r="A436" t="s">
         <v>843</v>
       </c>
@@ -15605,7 +15604,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1">
+    <row r="437" spans="1:9">
       <c r="A437" t="s">
         <v>843</v>
       </c>
@@ -15634,7 +15633,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1">
+    <row r="438" spans="1:9">
       <c r="A438" t="s">
         <v>843</v>
       </c>
@@ -15663,7 +15662,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1">
+    <row r="439" spans="1:9">
       <c r="A439" t="s">
         <v>843</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1">
+    <row r="440" spans="1:9">
       <c r="A440" t="s">
         <v>843</v>
       </c>
@@ -15721,7 +15720,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1">
+    <row r="441" spans="1:9">
       <c r="A441" t="s">
         <v>843</v>
       </c>
@@ -15750,7 +15749,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1">
+    <row r="442" spans="1:9">
       <c r="A442" t="s">
         <v>843</v>
       </c>
@@ -15779,7 +15778,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1">
+    <row r="443" spans="1:9">
       <c r="A443" t="s">
         <v>843</v>
       </c>
@@ -15808,7 +15807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1">
+    <row r="444" spans="1:9">
       <c r="A444" t="s">
         <v>843</v>
       </c>
@@ -15837,7 +15836,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1">
+    <row r="445" spans="1:9">
       <c r="A445" t="s">
         <v>843</v>
       </c>
@@ -15866,7 +15865,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1">
+    <row r="446" spans="1:9">
       <c r="A446" t="s">
         <v>843</v>
       </c>
@@ -15895,7 +15894,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1">
+    <row r="447" spans="1:9">
       <c r="A447" t="s">
         <v>843</v>
       </c>
@@ -15924,7 +15923,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1">
+    <row r="448" spans="1:9">
       <c r="A448" t="s">
         <v>843</v>
       </c>
@@ -15953,7 +15952,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1">
+    <row r="449" spans="1:9">
       <c r="A449" t="s">
         <v>843</v>
       </c>
@@ -15982,7 +15981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1">
+    <row r="450" spans="1:9">
       <c r="A450" t="s">
         <v>843</v>
       </c>
@@ -16011,7 +16010,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1">
+    <row r="451" spans="1:9">
       <c r="A451" t="s">
         <v>843</v>
       </c>
@@ -16040,7 +16039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1">
+    <row r="452" spans="1:9">
       <c r="A452" t="s">
         <v>843</v>
       </c>
@@ -16069,7 +16068,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1">
+    <row r="453" spans="1:9">
       <c r="A453" t="s">
         <v>843</v>
       </c>
@@ -16098,7 +16097,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1">
+    <row r="454" spans="1:9">
       <c r="A454" t="s">
         <v>843</v>
       </c>
@@ -16127,7 +16126,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1">
+    <row r="455" spans="1:9">
       <c r="A455" t="s">
         <v>843</v>
       </c>
@@ -16156,7 +16155,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1">
+    <row r="456" spans="1:9">
       <c r="A456" t="s">
         <v>843</v>
       </c>
@@ -16185,7 +16184,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1">
+    <row r="457" spans="1:9">
       <c r="A457" t="s">
         <v>843</v>
       </c>
@@ -16214,7 +16213,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1">
+    <row r="458" spans="1:9">
       <c r="A458" t="s">
         <v>843</v>
       </c>
@@ -16243,7 +16242,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1">
+    <row r="459" spans="1:9">
       <c r="A459" t="s">
         <v>843</v>
       </c>
@@ -16272,7 +16271,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1">
+    <row r="460" spans="1:9">
       <c r="A460" t="s">
         <v>843</v>
       </c>
@@ -16447,13 +16446,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:I465" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="6201"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:I465" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A168:I465">
     <sortCondition ref="B462:B465"/>
   </sortState>
